--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/india_yes.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/india_yes.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
   </si>
   <si>
     <t>arg106108</t>
@@ -42,7 +42,7 @@
     <t>arg119309</t>
   </si>
   <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
   </si>
   <si>
     <t>arg116888</t>
@@ -51,7 +51,7 @@
     <t>arg276210</t>
   </si>
   <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
   </si>
   <si>
     <t>arg142643</t>
@@ -63,13 +63,13 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
   </si>
   <si>
     <t>arg132483</t>
   </si>
   <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>than</t>
@@ -93,7 +93,7 @@
     <t>arg128880</t>
   </si>
   <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>u t</t>
@@ -117,13 +117,13 @@
     <t>arg110321</t>
   </si>
   <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>arg260216</t>
   </si>
   <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
   </si>
   <si>
     <t>mica</t>
@@ -144,10 +144,10 @@
     <t>arg106091</t>
   </si>
   <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
   </si>
   <si>
     <t>arg486903</t>
@@ -156,52 +156,52 @@
     <t>arg116894</t>
   </si>
   <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>arg121181</t>
   </si>
   <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
   </si>
   <si>
     <t>arg129910</t>
   </si>
   <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>arg126374</t>
   </si>
   <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>arg106165</t>
   </si>
   <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>arg116895</t>
   </si>
   <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
   </si>
   <si>
     <t>arg119329</t>
   </si>
   <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
   </si>
   <si>
     <t>d we</t>
@@ -219,13 +219,13 @@
     <t>d the world again in near future wait and watch</t>
   </si>
   <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>arg123380</t>
   </si>
   <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
   </si>
   <si>
     <t>arg125962</t>
@@ -234,7 +234,7 @@
     <t>arg106426</t>
   </si>
   <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
   </si>
   <si>
     <t>gain</t>
@@ -252,43 +252,43 @@
     <t>runs.. it always makes order out of chaos.</t>
   </si>
   <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
   </si>
   <si>
     <t>arg121919</t>
   </si>
   <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
   </si>
   <si>
     <t>arg129377</t>
   </si>
   <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>arg117437</t>
   </si>
   <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
   </si>
   <si>
     <t>arg131151</t>
   </si>
   <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>pot</t>
@@ -300,10 +300,10 @@
     <t>tial</t>
   </si>
   <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
   </si>
   <si>
     <t>no.</t>
@@ -321,13 +321,13 @@
     <t>loyees cuz we are genius,and we are actually intellectually superior.in past we have lead the world and we'll surely lead the world again in near future wait and watch</t>
   </si>
   <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>doct</t>
@@ -348,13 +348,13 @@
     <t>arg121182</t>
   </si>
   <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>nd p</t>
@@ -372,7 +372,7 @@
     <t>xists. &lt;br/&gt; But hey, China is communist, poverty is also seen in China.. &lt;br/&gt; So why not INDIA? &lt;br/&gt; INDIA DOES HAVE THE POTENTIAL TO LEAD THE WORLD</t>
   </si>
   <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>arm</t>
@@ -387,7 +387,7 @@
     <t>st magazine.</t>
   </si>
   <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>embe</t>
@@ -405,13 +405,13 @@
     <t>council of UN &lt;br/&gt; and it is also the country with a great development rate &lt;br/&gt; And i know that none of us are unknown to the great contribution of INDIA in the discovery of god partical &lt;br/&gt; then from where the matter comes from that INDIA is not having the pottential</t>
   </si>
   <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>so f</t>
@@ -429,22 +429,22 @@
     <t>a is expected to be the world's fastest growing economy by 2018, according to Economist Intelligence Unit, a research arm of the Economist magazine.</t>
   </si>
   <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
   </si>
   <si>
     <t>arg150905</t>
   </si>
   <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>ong</t>
@@ -462,22 +462,22 @@
     <t>&lt;br/&gt; The India growth story is indeed enviable. Despite being plagued by myriad problems, India has emerged stronger and more resilient to any global crises so far. &lt;br/&gt; India is expected to be the world's fastest growing economy by 2018, according to Economist Intelligence Unit, a research arm of the Economist magazine.</t>
   </si>
   <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>str</t>
@@ -492,10 +492,10 @@
     <t>r than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
   </si>
   <si>
     <t>trie</t>
@@ -516,31 +516,31 @@
     <t>arg123809</t>
   </si>
   <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>arg596217</t>
   </si>
   <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
   </si>
   <si>
     <t>ast</t>
@@ -555,10 +555,10 @@
     <t>abhatta was from India.</t>
   </si>
   <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
   </si>
   <si>
     <t>but</t>
@@ -576,10 +576,10 @@
     <t>ins that INDIANS are the BEST!!!!</t>
   </si>
   <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>mist</t>
@@ -594,10 +594,10 @@
     <t>ne.</t>
   </si>
   <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
   </si>
   <si>
     <t>l an</t>
@@ -615,43 +615,43 @@
     <t>ngineering, food processing, automotive, tourism and banking among others. Almost every multinational company is focusing on India.</t>
   </si>
   <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
   </si>
   <si>
     <t>arg618365</t>
   </si>
   <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>&lt;br/</t>
@@ -669,13 +669,13 @@
     <t>E!!!!</t>
   </si>
   <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
   </si>
   <si>
     <t>by</t>
@@ -687,37 +687,37 @@
     <t>!!!</t>
   </si>
   <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
   </si>
   <si>
     <t>cale</t>
@@ -735,19 +735,19 @@
     <t>lict, it just doesn't work. To "lead" a country must have time and resources to worry about other countries and not itself.</t>
   </si>
   <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
   </si>
   <si>
     <t>....</t>
@@ -765,19 +765,19 @@
     <t>y debate na den u bloody will b 4ced to leave dis site nd run away...." &lt;br/&gt; what crap? &lt;br/&gt; "dnt" , "ma" "dis" &lt;br/&gt; what kind of crap is that??? &lt;br/&gt; It makes no difference what you say but it still remains that INDIANS are the BEST!!!!</t>
   </si>
   <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>The</t>
@@ -795,19 +795,19 @@
     <t>countries are more developed den us bcoz it is da Indian people who are using their brain and making the foreign countries develop..........</t>
   </si>
   <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>ain</t>
@@ -825,22 +825,22 @@
     <t>h rate for a long time to come. &lt;br/&gt; The India growth story is indeed enviable. Despite being plagued by myriad problems, India has emerged stronger and more resilient to any global crises so far. &lt;br/&gt; India is expected to be the world's fastest growing economy by 2018, according to Economist Intelligence Unit, a research arm of the Economist magazine.</t>
   </si>
   <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>&gt; I</t>
@@ -855,25 +855,25 @@
     <t>ected to be the world's fastest growing economy by 2018, according to Economist Intelligence Unit, a research arm of the Economist magazine.</t>
   </si>
   <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
   </si>
   <si>
     <t>you</t>
@@ -891,13 +891,13 @@
     <t>ill remains that INDIANS are the BEST!!!!</t>
   </si>
   <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
   </si>
   <si>
     <t>ra..</t>
@@ -906,22 +906,22 @@
     <t>.</t>
   </si>
   <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>esea</t>
@@ -936,10 +936,10 @@
     <t>Economist magazine.</t>
   </si>
   <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
   </si>
   <si>
     <t>e fa</t>
@@ -954,10 +954,10 @@
     <t>omy, aryabhatta was from India.</t>
   </si>
   <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
   </si>
   <si>
     <t>suc</t>
@@ -975,70 +975,70 @@
     <t>es are more powerful but India is economically more strong.it is d hub 4 many other companies.</t>
   </si>
   <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>ng p</t>
@@ -1056,61 +1056,61 @@
     <t>I'll not compare my country with others as Napoleon said"Comparing yourself with others is same as insulting yourself" &lt;br/&gt; We have the 3rd largest army in the world.. &lt;br/&gt; we produce most no. of doctors and engineers every year (count in your own country) &lt;br/&gt; but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
+  </si>
+  <si>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>esnt</t>
@@ -1128,40 +1128,40 @@
     <t>ities.....it eats less and waste more.....the amount of food they waste can be utillised for feeding whole indian population...it produces more pollution and blame us...what about it !!!!!!!</t>
   </si>
   <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>re u</t>
@@ -1179,70 +1179,70 @@
     <t>in and making the foreign countries develop..........</t>
   </si>
   <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
   </si>
   <si>
     <t>ding</t>
@@ -1260,25 +1260,25 @@
     <t>Intelligence Unit, a research arm of the Economist magazine.</t>
   </si>
   <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
   </si>
   <si>
     <t>scov</t>
@@ -1296,25 +1296,25 @@
     <t>Moon. What do u say about that? And the father of astronomy, aryabhatta was from India.</t>
   </si>
   <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
   </si>
   <si>
     <t>inve</t>
@@ -1332,34 +1332,34 @@
     <t>tors such as mechanical and electrical engineering, food processing, automotive, tourism and banking among others. Almost every multinational company is focusing on India.</t>
   </si>
   <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>for</t>
@@ -1374,13 +1374,13 @@
     <t>ies develop..........</t>
   </si>
   <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>own</t>
@@ -1398,28 +1398,28 @@
     <t>but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>re m</t>
@@ -1437,52 +1437,52 @@
     <t>others as Napoleon said"Comparing yourself with others is same as insulting yourself" &lt;br/&gt; We have the 3rd largest army in the world.. &lt;br/&gt; we produce most no. of doctors and engineers every year (count in your own country) &lt;br/&gt; but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>t ra</t>
@@ -1497,25 +1497,25 @@
     <t>know that none of us are unknown to the great contribution of INDIA in the discovery of god partical &lt;br/&gt; then from where the matter comes from that INDIA is not having the pottential</t>
   </si>
   <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>rish</t>
@@ -1533,31 +1533,31 @@
     <t>I cannot ignore the fact that Indian government seems pretty corrupt and poverty still exists. &lt;br/&gt; But hey, China is communist, poverty is also seen in China.. &lt;br/&gt; So why not INDIA? &lt;br/&gt; INDIA DOES HAVE THE POTENTIAL TO LEAD THE WORLD</t>
   </si>
   <si>
-    <t>465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>ery</t>
@@ -1575,10 +1575,10 @@
     <t>your own country) &lt;br/&gt; but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>ut h</t>
@@ -1596,82 +1596,82 @@
     <t>ommunist, poverty is also seen in China.. &lt;br/&gt; So why not INDIA? &lt;br/&gt; INDIA DOES HAVE THE POTENTIAL TO LEAD THE WORLD</t>
   </si>
   <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
   </si>
   <si>
     <t>licy</t>
@@ -1686,19 +1686,19 @@
     <t>stors and their tourism. &lt;br/&gt; Regards, &lt;br/&gt; Jerwin &lt;br/&gt; "consultant of poster printing san francisco"</t>
   </si>
   <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>requ</t>
@@ -1716,34 +1716,34 @@
     <t>g dat plz think before u tell about India"s potential bcoz the wealth which the foreigners are enjoying nw are the looted one 4m India........ The other foreign countries are more developed den us bcoz it is da Indian people who are using their brain and making the foreign countries develop..........</t>
   </si>
   <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
   </si>
   <si>
     <t>coz</t>
@@ -1758,7 +1758,7 @@
     <t>n people who are using their brain and making the foreign countries develop..........</t>
   </si>
   <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>r or</t>
@@ -1776,61 +1776,61 @@
     <t>s.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>a..</t>
@@ -1845,55 +1845,55 @@
     <t>ot INDIA? &lt;br/&gt; INDIA DOES HAVE THE POTENTIAL TO LEAD THE WORLD</t>
   </si>
   <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
   </si>
   <si>
     <t>4 m</t>
@@ -1911,13 +1911,13 @@
     <t>anies.</t>
   </si>
   <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>e...</t>
@@ -1935,40 +1935,40 @@
     <t>e is river water and it brings changes..we growing as one of the leading power... &lt;br/&gt; I'll not compare my country with others as Napoleon said"Comparing yourself with others is same as insulting yourself" &lt;br/&gt; We have the 3rd largest army in the world.. &lt;br/&gt; we produce most no. of doctors and engineers every year (count in your own country) &lt;br/&gt; but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0</t>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78</t>
   </si>
   <si>
     <t>blem</t>
@@ -1986,16 +1986,16 @@
     <t>r/&gt; because they also know that how is there country.</t>
   </si>
   <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
   </si>
   <si>
     <t>esou</t>
@@ -2013,25 +2013,25 @@
     <t>he world.</t>
   </si>
   <si>
-    <t>107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
+    <t>14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>TO L</t>
@@ -2046,46 +2046,46 @@
     <t>WORLD</t>
   </si>
   <si>
-    <t>64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83</t>
+  </si>
+  <si>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63,14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>rsel</t>
@@ -2103,40 +2103,40 @@
     <t>is same as insulting yourself" &lt;br/&gt; We have the 3rd largest army in the world.. &lt;br/&gt; we produce most no. of doctors and engineers every year (count in your own country) &lt;br/&gt; but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
+    <t>16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
+  </si>
+  <si>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
   </si>
   <si>
     <t>he n</t>
@@ -2154,25 +2154,25 @@
     <t>the world have highest no. of Indian employees cuz we are genius,and we are actually intellectually superior.in past we have lead the world and we'll surely lead the world again in near future wait and watch</t>
   </si>
   <si>
-    <t>452,1.0,15.37,0.0,0.02,0.0,0.0,0.06,0.49,0.15,0.15,0.15,0.03,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07</t>
-  </si>
-  <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0,64,0.0,12.51,0.0,0.0,1.0,0.0,0.08,0.49,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>638,0.0,18.46,0.0,0.05,1.0,0.0,0.02,2.91,0.35,0.25,0.3,0.23,0.2,403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0</t>
+    <t>83.0,5.45,1.81,0.43,4.2,1.0,15.37,0.0,0.02,0.0,0,0,0.0,0.06,0.49,0.23,0.13,0.14,0.05,0.05,0.04,0.04,0.11,0.0,0.0,2.33,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83</t>
+  </si>
+  <si>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7,12.0,5.33,0.26,0.43,0.61,0.0,12.51,0.0,0.0,1.0,4,0,0.0,0.08,0.49,0.25,0.0,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,11.6</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>20.4,6.25,2.22,2.15,1.03,0.0,18.46,0.0,0.05,1.0,8,0,0.0,0.02,2.91,0.29,0.13,0.18,0.04,0.04,0.01,0.03,0.11,0.2,0.2,1.89,14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>bad</t>
@@ -2190,16 +2190,16 @@
     <t>arted developing quickly. India is much more competitive in education than America and soon when everyone has education (which will happen in our lifetime) India will excel. &lt;br/&gt; India has the potential.</t>
   </si>
   <si>
-    <t>535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>148,0.0,15.12,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.25,0.3,0.0,0.0,283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0</t>
+    <t>14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
+  </si>
+  <si>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71</t>
+  </si>
+  <si>
+    <t>27.0,5.48,0.59,0.43,1.37,0.0,15.12,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.22,0.07,0.19,0.04,0.04,0.04,0.04,0.0,0.0,0.0,3.82,43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2</t>
+  </si>
+  <si>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4</t>
   </si>
   <si>
     <t>an</t>
@@ -2214,13 +2214,13 @@
     <t>ost for India and China!</t>
   </si>
   <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,173,0.5,13.59,0.0,0.03,1.0,0.0,0.03,0.49,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,535,0.29,10.94,3.0,0.09,2.71,0.0,0.02,0.49,0.1,0.25,0.2,0.07,0.13</t>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,15.5,5.58,0.68,0.86,0.78,0.5,13.59,0.0,0.03,1.0,0,0,0.0,0.03,0.49,0.19,0.0,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,7.78</t>
+  </si>
+  <si>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,14.71,5.19,2.24,3.01,0.74,0.29,10.94,3.0,0.09,2.71,4,0,0.0,0.02,0.49,0.2,0.13,0.17,0.03,0.03,0.13,0.01,0.06,0.13,0.13,1.2</t>
   </si>
   <si>
     <t>dif</t>
@@ -2238,28 +2238,28 @@
     <t>ou say but it still remains that INDIANS are the BEST!!!!</t>
   </si>
   <si>
-    <t>329,0.0,14.07,0.0,0.06,12.5,0.0,0.2,1.46,0.2,0.35,0.3,0.03,0.07,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>128,0.0,22.93,0.0,0.12,10.0,0.0,0.06,0.0,0.05,0.1,0.15,0.0,0.0,190,0.0,16.34,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.0,15.84,0.0,0.19,18.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>188,0.5,17.38,0.0,0.06,1.0,0.0,0.0,1.46,0.25,0.3,0.35,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>327,0.33,15.58,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.15,0.25,0.03,0.07,225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,119,0.0,10.77,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>403,0.2,14.16,0.0,0.01,1.0,0.0,0.0,0.97,0.05,0.1,0.15,0.07,0.0,649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07</t>
+    <t>12.5,6.58,1.09,1.72,0.63,0.0,14.07,0.0,0.06,12.5,0,0,0.0,0.2,1.46,0.26,0.14,0.14,0.06,0.06,0.02,0.0,0.0,0.07,0.07,7.54,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>17.0,7.53,0.37,0.43,0.86,0.0,22.93,0.0,0.12,10.0,1,0,0.0,0.06,0.0,0.29,0.24,0.06,0.0,0.0,0.0,0.06,0.0,0.0,0.0,4.38,16.0,5.94,0.7,0.86,0.81,0.0,16.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.19,0.19,0.0,0.0,0.13,0.0,0.0,0.0,0.0,1.58</t>
+  </si>
+  <si>
+    <t>26.5,6.68,1.16,0.86,1.34,0.0,15.84,0.0,0.19,18.0,0,0,0.0,0.02,0.0,0.23,0.11,0.28,0.02,0.02,0.04,0.0,0.0,0.0,0.0,3.71,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>15.5,6.06,0.68,0.86,0.78,0.5,17.38,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.32,0.06,0.26,0.03,0.03,0.0,0.0,0.0,0.0,0.0,6.4,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>18.67,5.84,1.22,1.29,0.95,0.33,15.58,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.16,0.11,0.21,0.09,0.09,0.05,0.0,0.0,0.07,0.07,4.83,32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,12.0,4.96,0.52,0.86,0.61,0.0,10.77,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.33,0.17,0.21,0.04,0.04,0.0,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>14.4,5.6,1.57,2.15,0.73,0.2,14.16,0.0,0.01,1.0,0,0,0.0,0.0,0.97,0.15,0.08,0.28,0.06,0.06,0.06,0.03,0.06,0.0,0.0,1.82,15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62</t>
   </si>
   <si>
     <t>he 3</t>
@@ -2277,34 +2277,34 @@
     <t>y in the world.. &lt;br/&gt; we produce most no. of doctors and engineers every year (count in your own country) &lt;br/&gt; but still we don't like to prise ourselves because we don't believe anyone is stronger or weaker than us.... &lt;br/&gt; !!!!! NAMASTE!!!!</t>
   </si>
   <si>
-    <t>225,0.0,17.4,0.0,0.13,30.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,418,0.29,15.01,0.0,0.01,1.0,0.0,0.16,1.94,0.35,0.4,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>283,1.0,15.17,0.0,0.07,43.0,0.0,0.02,0.97,0.15,0.25,0.3,0.0,0.0,136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07</t>
-  </si>
-  <si>
-    <t>202,0.0,18.52,0.0,0.11,9.5,0.0,0.04,0.0,0.0,0.05,0.05,0.03,0.07,174,0.0,12.52,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.15,0.07,0.13</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,196,0.0,9.17,0.0,0.02,2.0,0.0,0.0,0.49,0.2,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,15.87,0.0,0.16,3.0,0.0,0.0,0.49,0.15,0.2,0.2,0.0,0.0,192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>82,0.0,16.1,0.0,0.14,1.0,0.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,371,0.0,14.93,0.0,0.08,1.0,0.0,0.0,1.46,0.15,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,10.99,0.0,0.0,1.0,0.0,0.0,0.49,0.15,0.2,0.15,0.0,0.0,465,0.0,13.24,0.0,0.12,23.5,0.0,0.0,0.97,0.2,0.35,0.35,0.07,0.07</t>
-  </si>
-  <si>
-    <t>192,0.25,9.29,0.0,0.0,1.5,0.0,0.0,0.97,0.1,0.15,0.15,0.0,0.0,145,1.0,19.47,0.0,0.0,1.0,0.0,0.0,0.97,0.2,0.25,0.2,0.03,0.07</t>
-  </si>
-  <si>
-    <t>136,0.5,11.87,0.0,0.17,5.0,0.0,0.0,0.97,0.05,0.15,0.15,0.03,0.07,118,0.0,15.27,0.0,0.14,0.0,0.0,0.0,0.0,0.0,0.1,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>531,0.22,15.63,0.0,0.06,1.0,0.0,0.02,1.94,0.25,0.4,0.5,0.07,0.07,335,0.0,21.11,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.05,0.1,0.03,0.0</t>
+    <t>32.0,7.03,0.7,0.43,1.62,0.0,17.4,0.0,0.13,30.0,0,0,0.0,0.0,0.49,0.28,0.16,0.19,0.06,0.06,0.03,0.03,0.0,0.0,0.0,3.33,10.0,5.97,1.53,3.01,0.51,0.29,15.01,0.0,0.01,1.0,0,0,0.0,0.16,1.94,0.23,0.14,0.19,0.06,0.06,0.01,0.01,0.0,0.0,0.0,4.7</t>
+  </si>
+  <si>
+    <t>43.0,6.58,0.94,0.43,2.18,1.0,15.17,0.0,0.07,43.0,2,0,0.0,0.02,0.97,0.21,0.26,0.16,0.09,0.09,0.02,0.05,0.0,0.0,0.0,5.2,12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15</t>
+  </si>
+  <si>
+    <t>14.0,7.21,0.61,0.86,0.71,0.0,18.52,0.0,0.11,9.5,0,0,0.0,0.04,0.0,0.25,0.25,0.18,0.0,0.0,0.0,0.04,0.06,0.07,0.07,0.6,16.5,5.27,0.72,0.86,0.84,0.0,12.52,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.27,0.09,0.09,0.0,0.0,0.06,0.03,0.06,0.13,0.13,3.46</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,13.67,4.78,0.89,1.29,0.69,0.0,9.17,0.0,0.02,2.0,1,0,0.0,0.0,0.49,0.17,0.07,0.29,0.07,0.07,0.05,0.0,0.0,0.0,0.0,4.92</t>
+  </si>
+  <si>
+    <t>19.0,6.79,0.41,0.43,0.96,0.0,15.87,0.0,0.16,3.0,0,0,0.0,0.0,0.49,0.32,0.16,0.21,0.0,0.0,0.0,0.0,0.0,0.0,0.0,7.89,9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>14.0,5.86,0.31,0.43,0.71,0.0,16.1,0.0,0.14,1.0,0,0,0.0,0.0,0.0,0.21,0.14,0.21,0.07,0.07,0.07,0.0,0.0,0.0,0.0,0.83,32.5,5.71,1.42,0.86,1.65,0.0,14.93,0.0,0.08,1.0,0,0,0.0,0.0,1.46,0.2,0.11,0.2,0.11,0.11,0.08,0.02,0.06,0.0,0.0,3.7</t>
+  </si>
+  <si>
+    <t>21.5,4.93,0.94,0.86,1.09,1.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.16,0.09,0.21,0.12,0.12,0.07,0.0,0.0,0.0,0.0,4.78,41.5,5.6,1.81,0.86,2.1,0.0,13.24,0.0,0.12,23.5,1,0,0.0,0.0,0.97,0.23,0.13,0.18,0.01,0.01,0.04,0.01,0.0,0.07,0.07,2.59</t>
+  </si>
+  <si>
+    <t>9.5,5.05,0.83,1.72,0.48,0.25,9.29,0.0,0.0,1.5,0,0,0.0,0.0,0.97,0.18,0.08,0.24,0.11,0.11,0.08,0.03,0.06,0.0,0.0,3.4,23.0,6.3,0.5,0.43,1.16,1.0,19.47,0.0,0.0,1.0,0,0,0.0,0.0,0.97,0.22,0.09,0.17,0.04,0.04,0.0,0.04,0.06,0.07,0.07,8.25</t>
+  </si>
+  <si>
+    <t>12.0,5.67,0.52,0.86,0.61,0.5,11.87,0.0,0.17,5.0,0,0,0.0,0.0,0.97,0.29,0.08,0.17,0.04,0.04,0.08,0.0,0.0,0.07,0.07,3.15,21.0,5.62,0.46,0.43,1.06,0.0,15.27,0.0,0.14,0.0,0,0,0.0,0.0,0.0,0.29,0.05,0.14,0.1,0.1,0.05,0.0,0.0,0.0,0.0,0.7</t>
+  </si>
+  <si>
+    <t>9.89,5.97,1.94,3.87,0.5,0.22,15.63,0.0,0.06,1.0,4,0,0.0,0.02,1.94,0.21,0.1,0.16,0.04,0.04,0.02,0.07,0.11,0.07,0.07,4.17,16.67,6.7,1.09,1.29,0.84,0.0,21.11,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.3,0.16,0.16,0.02,0.02,0.02,0.2,0.28,0.0,0.0,1.3</t>
   </si>
   <si>
     <t>comp</t>
@@ -2319,7 +2319,7 @@
     <t>g on India.</t>
   </si>
   <si>
-    <t>649,0.43,14.82,0.0,0.03,4.71,0.0,0.02,0.97,0.4,0.45,0.45,0.13,0.07,227,0.0,14.64,0.0,0.05,1.5,0.0,0.0,0.49,0.2,0.25,0.25,0.03,0.0</t>
+    <t>15.43,6.01,2.35,3.01,0.78,0.43,14.82,0.0,0.03,4.71,1,0,0.0,0.02,0.97,0.21,0.11,0.19,0.04,0.04,0.1,0.0,0.0,0.07,0.07,3.62,20.0,5.67,0.87,0.86,1.01,0.0,14.64,0.0,0.05,1.5,0,0,0.0,0.0,0.49,0.17,0.07,0.15,0.1,0.1,0.05,0.03,0.0,0.0,0.0,6.36</t>
   </si>
   <si>
     <t>eas</t>
@@ -2337,7 +2337,7 @@
     <t>he people of world without creating any nuissance among anyone.</t>
   </si>
   <si>
-    <t>73,0.0,8.81,0.0,0.0,1.0,0.0,0.0,0.49,0.1,0.2,0.2,0.0,0.0,107,0.0,23.99,0.0,0.21,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>16.0,4.56,0.35,0.43,0.81,0.0,8.81,0.0,0.0,1.0,0,0,0.0,0.0,0.49,0.19,0.0,0.25,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.2,14.0,7.64,0.31,0.43,0.71,0.0,23.99,0.0,0.21,1.0,4,0,0.0,0.0,0.0,0.29,0.14,0.29,0.14,0.14,0.0,0.07,0.0,0.0,0.0,4.5</t>
   </si>
 </sst>
 </file>
